--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-deidentify-operation-data-urls-parameter.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-deidentify-operation-data-urls-parameter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T09:30:38-04:00</t>
+    <t>2025-03-28T22:48:43+11:00</t>
   </si>
   <si>
     <t>Publisher</t>
